--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/invalid/GlobalSearch/BEFTA_Master_Definition_GlobalSearch_InvalidComplexSearchPartyPostCode_ComplexFieldsOrdering_Schema.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/invalid/GlobalSearch/BEFTA_Master_Definition_GlobalSearch_InvalidComplexSearchPartyPostCode_ComplexFieldsOrdering_Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmcts/IdeaProjects/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/invalid/GlobalSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB679988-F918-7A40-BC64-6FBE68E75403}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388BC8A7-AE53-B348-AAB2-48A4CE306103}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="17" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,25 @@
     <sheet name="Category" sheetId="23" r:id="rId5"/>
     <sheet name="CaseField" sheetId="3" r:id="rId6"/>
     <sheet name="ComplexTypes" sheetId="4" r:id="rId7"/>
-    <sheet name="AuthorisationComplexType" sheetId="21" state="hidden" r:id="rId8"/>
-    <sheet name="EventToComplexTypes" sheetId="20" state="hidden" r:id="rId9"/>
-    <sheet name="FixedLists" sheetId="5" state="hidden" r:id="rId10"/>
-    <sheet name="CaseTypeTab" sheetId="6" state="hidden" r:id="rId11"/>
-    <sheet name="State" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="CaseEvent" sheetId="8" state="hidden" r:id="rId13"/>
-    <sheet name="CaseEventToFields" sheetId="9" state="hidden" r:id="rId14"/>
-    <sheet name="SearchInputFields" sheetId="10" state="hidden" r:id="rId15"/>
-    <sheet name="SearchCasesResultFields" sheetId="25" state="hidden" r:id="rId16"/>
-    <sheet name="SearchResultFields" sheetId="11" state="hidden" r:id="rId17"/>
-    <sheet name="WorkBasketInputFields" sheetId="12" state="hidden" r:id="rId18"/>
-    <sheet name="WorkBasketResultFields" sheetId="13" state="hidden" r:id="rId19"/>
-    <sheet name="UserProfile" sheetId="14" state="hidden" r:id="rId20"/>
-    <sheet name="AuthorisationCaseType" sheetId="15" state="hidden" r:id="rId21"/>
-    <sheet name="AuthorisationCaseField" sheetId="16" state="hidden" r:id="rId22"/>
-    <sheet name="CaseRoles" sheetId="19" state="hidden" r:id="rId23"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="17" state="hidden" r:id="rId24"/>
-    <sheet name="AuthorisationCaseState" sheetId="18" state="hidden" r:id="rId25"/>
-    <sheet name="RoleToAccessProfiles" sheetId="27" state="hidden" r:id="rId26"/>
+    <sheet name="AuthorisationComplexType" sheetId="21" r:id="rId8"/>
+    <sheet name="EventToComplexTypes" sheetId="20" r:id="rId9"/>
+    <sheet name="FixedLists" sheetId="5" r:id="rId10"/>
+    <sheet name="CaseTypeTab" sheetId="6" r:id="rId11"/>
+    <sheet name="State" sheetId="7" r:id="rId12"/>
+    <sheet name="CaseEvent" sheetId="8" r:id="rId13"/>
+    <sheet name="CaseEventToFields" sheetId="9" r:id="rId14"/>
+    <sheet name="SearchInputFields" sheetId="10" r:id="rId15"/>
+    <sheet name="SearchCasesResultFields" sheetId="25" r:id="rId16"/>
+    <sheet name="SearchResultFields" sheetId="11" r:id="rId17"/>
+    <sheet name="WorkBasketInputFields" sheetId="12" r:id="rId18"/>
+    <sheet name="WorkBasketResultFields" sheetId="13" r:id="rId19"/>
+    <sheet name="UserProfile" sheetId="14" r:id="rId20"/>
+    <sheet name="AuthorisationCaseType" sheetId="15" r:id="rId21"/>
+    <sheet name="AuthorisationCaseField" sheetId="16" r:id="rId22"/>
+    <sheet name="CaseRoles" sheetId="19" r:id="rId23"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId24"/>
+    <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId25"/>
+    <sheet name="RoleToAccessProfiles" sheetId="27" r:id="rId26"/>
     <sheet name="SearchParty" sheetId="30" r:id="rId27"/>
   </sheets>
   <externalReferences>
@@ -9432,7 +9432,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -9450,7 +9450,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -12532,7 +12532,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -12834,7 +12834,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
